--- a/data/trans_orig/P1401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4DC948E-8A62-467E-A15D-924610DD8EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F62E644-19FD-4873-8401-2AD4D06ED7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72234E26-9FA3-43CA-ACD4-4D23CDCD8D4C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3F710F3-A4A1-4E45-BA8E-F4A13EDB3F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="206">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,604 +76,586 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EE888F-06EF-4449-AD1B-12AB4126B9A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725DBFD2-4904-486D-8FFE-2C22583A3467}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1442,7 +1424,7 @@
         <v>3446</v>
       </c>
       <c r="N8" s="7">
-        <v>3669896</v>
+        <v>3669895</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1493,7 +1475,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1534,13 +1516,13 @@
         <v>4312</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1549,13 +1531,13 @@
         <v>6429</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,13 +1552,13 @@
         <v>479064</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -1585,13 +1567,13 @@
         <v>454319</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
@@ -1600,13 +1582,13 @@
         <v>933383</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1656,13 @@
         <v>39165</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -1689,13 +1671,13 @@
         <v>71617</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -1704,13 +1686,13 @@
         <v>110782</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,13 +1707,13 @@
         <v>3380617</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3228</v>
@@ -1740,28 +1722,28 @@
         <v>3479403</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6394</v>
       </c>
       <c r="N14" s="7">
-        <v>6860019</v>
+        <v>6860020</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,7 +1785,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1817,7 +1799,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C801F9C-9C37-497A-887A-6D3321A4046D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C41FD2E-1191-4060-B030-415C6CDAE2A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1853,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1960,13 +1942,13 @@
         <v>13804</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -1975,13 +1957,13 @@
         <v>27798</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -1990,13 +1972,13 @@
         <v>41602</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +1993,13 @@
         <v>740543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7">
         <v>868</v>
@@ -2026,13 +2008,13 @@
         <v>966862</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1615</v>
@@ -2041,13 +2023,13 @@
         <v>1707405</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2097,13 @@
         <v>13267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -2130,13 +2112,13 @@
         <v>25676</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2151,7 +2133,7 @@
         <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,7 +2148,7 @@
         <v>2063118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>112</v>
@@ -2184,10 +2166,10 @@
         <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>3824</v>
@@ -2196,10 +2178,10 @@
         <v>4025742</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>118</v>
@@ -2300,13 +2282,13 @@
         <v>20340</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2303,13 @@
         <v>544223</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>510</v>
@@ -2336,13 +2318,13 @@
         <v>531463</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>1008</v>
@@ -2351,13 +2333,13 @@
         <v>1075686</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2407,13 @@
         <v>29734</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -2440,13 +2422,13 @@
         <v>71150</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -2455,13 +2437,13 @@
         <v>100885</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2458,13 @@
         <v>3347884</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>3263</v>
@@ -2491,13 +2473,13 @@
         <v>3460950</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>6447</v>
@@ -2509,10 +2491,10 @@
         <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,7 +2550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F54733A-092A-4E73-BE82-4CAAA6381F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2E93E4-14A4-4631-BBDA-FF7873CF65E0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,7 +2744,7 @@
         <v>521565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>160</v>
@@ -2866,13 +2848,13 @@
         <v>39461</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -2881,10 +2863,10 @@
         <v>39495</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>170</v>
@@ -2914,16 +2896,16 @@
         <v>1942</v>
       </c>
       <c r="D8" s="7">
-        <v>2119571</v>
+        <v>2119570</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7">
         <v>2848</v>
@@ -2932,13 +2914,13 @@
         <v>2206576</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>4790</v>
@@ -2965,7 +2947,7 @@
         <v>1988</v>
       </c>
       <c r="D9" s="7">
-        <v>2159032</v>
+        <v>2159031</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3024,10 +3006,10 @@
         <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3036,10 +3018,10 @@
         <v>10465</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>184</v>
@@ -3051,13 +3033,13 @@
         <v>27627</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,16 +3051,16 @@
         <v>656</v>
       </c>
       <c r="D11" s="7">
-        <v>654751</v>
+        <v>654752</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
@@ -3087,13 +3069,13 @@
         <v>703421</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
@@ -3102,13 +3084,13 @@
         <v>1358173</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,7 +3102,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671913</v>
+        <v>671914</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3176,13 +3158,13 @@
         <v>73975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -3191,13 +3173,13 @@
         <v>86078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -3206,13 +3188,13 @@
         <v>160053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,16 +3206,16 @@
         <v>3261</v>
       </c>
       <c r="D14" s="7">
-        <v>3295886</v>
+        <v>3295887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>5195</v>
@@ -3242,13 +3224,13 @@
         <v>3705678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>8456</v>
@@ -3257,13 +3239,13 @@
         <v>7001564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,7 +3257,7 @@
         <v>3356</v>
       </c>
       <c r="D15" s="7">
-        <v>3369861</v>
+        <v>3369862</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3319,7 +3301,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F62E644-19FD-4873-8401-2AD4D06ED7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{897F62B7-A5FE-44F7-931A-9199B33CE9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3F710F3-A4A1-4E45-BA8E-F4A13EDB3F7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4729A250-E619-4838-A136-08B0F2E3A666}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="208">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,544 +76,550 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
   </si>
   <si>
     <t>97,27%</t>
@@ -1067,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725DBFD2-4904-486D-8FFE-2C22583A3467}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AAD7C3-B1C7-4137-A9B0-BD0A6E222951}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1364,10 +1370,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -1376,13 +1382,13 @@
         <v>48654</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,13 +1403,13 @@
         <v>1944494</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1608</v>
@@ -1412,28 +1418,28 @@
         <v>1725401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>3446</v>
       </c>
       <c r="N8" s="7">
-        <v>3669895</v>
+        <v>3669896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,7 +1481,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1489,7 +1495,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1501,13 +1507,13 @@
         <v>2117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1516,13 +1522,13 @@
         <v>4312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1531,13 +1537,13 @@
         <v>6429</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,13 +1558,13 @@
         <v>479064</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -1567,13 +1573,13 @@
         <v>454319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
@@ -1582,13 +1588,13 @@
         <v>933383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,13 +1662,13 @@
         <v>39165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -1671,13 +1677,13 @@
         <v>71617</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -1686,13 +1692,13 @@
         <v>110782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,13 +1713,13 @@
         <v>3380617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>3228</v>
@@ -1722,28 +1728,28 @@
         <v>3479403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>6394</v>
       </c>
       <c r="N14" s="7">
-        <v>6860020</v>
+        <v>6860019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,7 +1791,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1799,7 +1805,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C41FD2E-1191-4060-B030-415C6CDAE2A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403FD226-8DB3-42EA-97F8-DD70A6C9520B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1835,7 +1841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1942,13 +1948,13 @@
         <v>13804</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -1957,13 +1963,13 @@
         <v>27798</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -1972,13 +1978,13 @@
         <v>41602</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1999,13 @@
         <v>740543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>868</v>
@@ -2008,13 +2014,13 @@
         <v>966862</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>1615</v>
@@ -2023,13 +2029,13 @@
         <v>1707405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2103,13 @@
         <v>13267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -2112,13 +2118,13 @@
         <v>25676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2127,13 +2133,13 @@
         <v>38943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,13 +2154,13 @@
         <v>2063118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>1885</v>
@@ -2163,13 +2169,13 @@
         <v>1962624</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>3824</v>
@@ -2178,13 +2184,13 @@
         <v>4025742</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,7 +2246,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2252,13 +2258,13 @@
         <v>2663</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2267,13 +2273,13 @@
         <v>17677</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2282,13 +2288,13 @@
         <v>20340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,13 +2309,13 @@
         <v>544223</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>510</v>
@@ -2318,13 +2324,13 @@
         <v>531463</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>1008</v>
@@ -2333,7 +2339,7 @@
         <v>1075686</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>133</v>
@@ -2425,10 +2431,10 @@
         <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -2437,13 +2443,13 @@
         <v>100885</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2464,13 @@
         <v>3347884</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>3263</v>
@@ -2473,13 +2479,13 @@
         <v>3460950</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>6447</v>
@@ -2488,13 +2494,13 @@
         <v>6808833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2569,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2E93E4-14A4-4631-BBDA-FF7873CF65E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5565869-4E5A-4B2A-A0F8-844025F992A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2586,7 +2592,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2693,13 +2699,13 @@
         <v>17352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -2708,13 +2714,13 @@
         <v>36118</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -2723,13 +2729,13 @@
         <v>53471</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2750,13 @@
         <v>521565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>1360</v>
@@ -2759,13 +2765,13 @@
         <v>795681</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>2023</v>
@@ -2774,13 +2780,13 @@
         <v>1317244</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +2854,13 @@
         <v>39461</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -2878,13 +2884,13 @@
         <v>78956</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2905,13 @@
         <v>2119570</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>2848</v>
@@ -2914,13 +2920,13 @@
         <v>2206576</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>4790</v>
@@ -2929,7 +2935,7 @@
         <v>4326146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>178</v>
@@ -2991,7 +2997,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3006,7 +3012,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>181</v>
@@ -3033,13 +3039,13 @@
         <v>27627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3060,13 @@
         <v>654752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
@@ -3069,13 +3075,13 @@
         <v>703421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
@@ -3084,13 +3090,13 @@
         <v>1358173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3164,13 @@
         <v>73975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -3173,13 +3179,13 @@
         <v>86078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -3188,10 +3194,10 @@
         <v>160053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>180</v>
@@ -3212,10 +3218,10 @@
         <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>5195</v>
@@ -3224,13 +3230,13 @@
         <v>3705678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>8456</v>
@@ -3239,13 +3245,13 @@
         <v>7001564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,7 +3307,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897F62B7-A5FE-44F7-931A-9199B33CE9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0979E148-2B73-4946-AA46-96AF894BAE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4729A250-E619-4838-A136-08B0F2E3A666}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{713B3EBE-F2F0-4E7A-A823-2107A0F7AEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,31 +139,37 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>2,46%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>98,34%</t>
@@ -172,10 +178,16 @@
     <t>97,54%</t>
   </si>
   <si>
+    <t>98,86%</t>
+  </si>
+  <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>98,23%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -187,28 +199,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>98,25%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -217,70 +232,73 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>98,52%</t>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -289,370 +307,364 @@
     <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>97,31%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>98,1%</t>
@@ -661,7 +673,7 @@
     <t>97,77%</t>
   </si>
   <si>
-    <t>98,03%</t>
+    <t>98,06%</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AAD7C3-B1C7-4137-A9B0-BD0A6E222951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49304A70-311B-4DA8-B4C1-E86B9AEDA0B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1370,10 +1382,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -1382,13 +1394,13 @@
         <v>48654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,13 +1415,13 @@
         <v>1944494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1608</v>
@@ -1418,13 +1430,13 @@
         <v>1725401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3446</v>
@@ -1433,13 +1445,13 @@
         <v>3669896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,7 +1507,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1507,13 +1519,13 @@
         <v>2117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1522,13 +1534,13 @@
         <v>4312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1537,13 +1549,13 @@
         <v>6429</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1570,13 @@
         <v>479064</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -1573,13 +1585,13 @@
         <v>454319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
@@ -1588,13 +1600,13 @@
         <v>933383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1674,13 @@
         <v>39165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -1677,13 +1689,13 @@
         <v>71617</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -1692,13 +1704,13 @@
         <v>110782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1725,13 @@
         <v>3380617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3228</v>
@@ -1728,13 +1740,13 @@
         <v>3479403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6394</v>
@@ -1743,13 +1755,13 @@
         <v>6860019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,7 +1817,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403FD226-8DB3-42EA-97F8-DD70A6C9520B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91E0052-3F6A-43EA-943C-3B02BF7EBC06}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1841,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1948,13 +1960,13 @@
         <v>13804</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -1963,13 +1975,13 @@
         <v>27798</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -1978,13 +1990,13 @@
         <v>41602</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +2011,13 @@
         <v>740543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>868</v>
@@ -2014,13 +2026,13 @@
         <v>966862</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1615</v>
@@ -2029,13 +2041,13 @@
         <v>1707405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2115,13 @@
         <v>13267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -2118,13 +2130,13 @@
         <v>25676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2133,13 +2145,13 @@
         <v>38943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2166,13 @@
         <v>2063118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1885</v>
@@ -2169,13 +2181,13 @@
         <v>1962624</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>3824</v>
@@ -2184,13 +2196,13 @@
         <v>4025742</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,7 +2258,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2258,13 +2270,13 @@
         <v>2663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2273,13 +2285,13 @@
         <v>17677</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2288,13 +2300,13 @@
         <v>20340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2321,13 @@
         <v>544223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>510</v>
@@ -2324,13 +2336,13 @@
         <v>531463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>1008</v>
@@ -2339,13 +2351,13 @@
         <v>1075686</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2425,13 @@
         <v>29734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -2428,13 +2440,13 @@
         <v>71150</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -2443,13 +2455,13 @@
         <v>100885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2476,13 @@
         <v>3347884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>3263</v>
@@ -2479,13 +2491,13 @@
         <v>3460950</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>6447</v>
@@ -2494,13 +2506,13 @@
         <v>6808833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,7 +2568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5565869-4E5A-4B2A-A0F8-844025F992A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C591250-4905-41ED-9E4B-AD9586B70E44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2592,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2699,13 +2711,13 @@
         <v>17352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -2714,13 +2726,13 @@
         <v>36118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -2729,13 +2741,13 @@
         <v>53471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2762,13 @@
         <v>521565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>1360</v>
@@ -2765,13 +2777,13 @@
         <v>795681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>2023</v>
@@ -2780,13 +2792,13 @@
         <v>1317244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2866,13 @@
         <v>39461</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -2869,10 +2881,10 @@
         <v>39495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>170</v>
@@ -2884,13 +2896,13 @@
         <v>78956</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,16 +2914,16 @@
         <v>1942</v>
       </c>
       <c r="D8" s="7">
-        <v>2119570</v>
+        <v>2119571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>2848</v>
@@ -2926,7 +2938,7 @@
         <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>4790</v>
@@ -2935,7 +2947,7 @@
         <v>4326146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>178</v>
@@ -2953,7 +2965,7 @@
         <v>1988</v>
       </c>
       <c r="D9" s="7">
-        <v>2159031</v>
+        <v>2159032</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2997,7 +3009,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3012,10 +3024,10 @@
         <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3024,10 +3036,10 @@
         <v>10465</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>184</v>
@@ -3057,7 +3069,7 @@
         <v>656</v>
       </c>
       <c r="D11" s="7">
-        <v>654752</v>
+        <v>654751</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>188</v>
@@ -3066,7 +3078,7 @@
         <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
@@ -3075,13 +3087,13 @@
         <v>703421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
@@ -3108,7 +3120,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671914</v>
+        <v>671913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3164,13 +3176,13 @@
         <v>73975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -3179,13 +3191,13 @@
         <v>86078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -3194,13 +3206,13 @@
         <v>160053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,16 +3224,16 @@
         <v>3261</v>
       </c>
       <c r="D14" s="7">
-        <v>3295887</v>
+        <v>3295886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>5195</v>
@@ -3230,13 +3242,13 @@
         <v>3705678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>8456</v>
@@ -3245,13 +3257,13 @@
         <v>7001564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,7 +3275,7 @@
         <v>3356</v>
       </c>
       <c r="D15" s="7">
-        <v>3369862</v>
+        <v>3369861</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3307,7 +3319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0979E148-2B73-4946-AA46-96AF894BAE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83954B8A-F32C-44F9-BAB3-0DB43D8EFBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{713B3EBE-F2F0-4E7A-A823-2107A0F7AEEE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0732D5B9-7217-46A1-9F41-8EC48F73024A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="206">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -496,184 +496,166 @@
     <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49304A70-311B-4DA8-B4C1-E86B9AEDA0B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54C91B3-8F23-4BB5-8322-5E016286022D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1272,7 +1254,7 @@
         <v>1212</v>
       </c>
       <c r="I5" s="7">
-        <v>1299682</v>
+        <v>1299683</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1323,7 +1305,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1442,7 +1424,7 @@
         <v>3446</v>
       </c>
       <c r="N8" s="7">
-        <v>3669896</v>
+        <v>3669895</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1493,7 +1475,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1597,7 +1579,7 @@
         <v>844</v>
       </c>
       <c r="N11" s="7">
-        <v>933383</v>
+        <v>933384</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1648,7 +1630,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1836,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91E0052-3F6A-43EA-943C-3B02BF7EBC06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30874DD2-1BFA-4F79-A1B9-E8A817E5D88D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2348,7 +2330,7 @@
         <v>1008</v>
       </c>
       <c r="N11" s="7">
-        <v>1075686</v>
+        <v>1075687</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>134</v>
@@ -2399,7 +2381,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2587,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C591250-4905-41ED-9E4B-AD9586B70E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A303FDB7-A89A-43C6-9B37-43E0421D82AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,46 +2690,46 @@
         <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>17352</v>
+        <v>16060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
       </c>
       <c r="I4" s="7">
-        <v>36118</v>
+        <v>32407</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>53471</v>
+        <v>48467</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,46 +2741,46 @@
         <v>663</v>
       </c>
       <c r="D5" s="7">
-        <v>521565</v>
+        <v>496397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>1360</v>
       </c>
       <c r="I5" s="7">
-        <v>795681</v>
+        <v>719533</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>2023</v>
       </c>
       <c r="N5" s="7">
-        <v>1317244</v>
+        <v>1215931</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2792,7 @@
         <v>688</v>
       </c>
       <c r="D6" s="7">
-        <v>538917</v>
+        <v>512457</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2807,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831799</v>
+        <v>751940</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2840,7 +2822,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1370715</v>
+        <v>1264398</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2863,46 +2845,46 @@
         <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>39461</v>
+        <v>36733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
       </c>
       <c r="I7" s="7">
-        <v>39495</v>
+        <v>36133</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>78956</v>
+        <v>72866</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,46 +2896,46 @@
         <v>1942</v>
       </c>
       <c r="D8" s="7">
-        <v>2119571</v>
+        <v>2250777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>2848</v>
       </c>
       <c r="I8" s="7">
-        <v>2206576</v>
+        <v>2198506</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4790</v>
       </c>
       <c r="N8" s="7">
-        <v>4326146</v>
+        <v>4449282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +2947,7 @@
         <v>1988</v>
       </c>
       <c r="D9" s="7">
-        <v>2159032</v>
+        <v>2287510</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2980,7 +2962,7 @@
         <v>2915</v>
       </c>
       <c r="I9" s="7">
-        <v>2246071</v>
+        <v>2234639</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2995,7 +2977,7 @@
         <v>4903</v>
       </c>
       <c r="N9" s="7">
-        <v>4405102</v>
+        <v>4522148</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3018,46 +3000,46 @@
         <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>17162</v>
+        <v>16084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>10465</v>
+        <v>9400</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>27627</v>
+        <v>25484</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,46 +3051,46 @@
         <v>656</v>
       </c>
       <c r="D11" s="7">
-        <v>654751</v>
+        <v>629479</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>987</v>
       </c>
       <c r="I11" s="7">
-        <v>703421</v>
+        <v>651063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
       </c>
       <c r="N11" s="7">
-        <v>1358173</v>
+        <v>1280542</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,7 +3102,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671913</v>
+        <v>645563</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3135,7 +3117,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3150,7 +3132,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1385800</v>
+        <v>1306026</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3173,46 +3155,46 @@
         <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>73975</v>
+        <v>68877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
       </c>
       <c r="I13" s="7">
-        <v>86078</v>
+        <v>77940</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
       </c>
       <c r="N13" s="7">
-        <v>160053</v>
+        <v>146817</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,46 +3206,46 @@
         <v>3261</v>
       </c>
       <c r="D14" s="7">
-        <v>3295886</v>
+        <v>3376653</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>5195</v>
       </c>
       <c r="I14" s="7">
-        <v>3705678</v>
+        <v>3569102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>8456</v>
       </c>
       <c r="N14" s="7">
-        <v>7001564</v>
+        <v>6945755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,7 +3257,7 @@
         <v>3356</v>
       </c>
       <c r="D15" s="7">
-        <v>3369861</v>
+        <v>3445530</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3290,7 +3272,7 @@
         <v>5343</v>
       </c>
       <c r="I15" s="7">
-        <v>3791756</v>
+        <v>3647042</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3305,7 +3287,7 @@
         <v>8699</v>
       </c>
       <c r="N15" s="7">
-        <v>7161617</v>
+        <v>7092572</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
